--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5451713395638629</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9408602150537635</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5327380952380952</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6903353057199212</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4940476190476191</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07303376711883805</v>
+        <v>0.1045709902238855</v>
       </c>
       <c r="J2" t="n">
-        <v>963.9360715318807</v>
+        <v>1407.414368650951</v>
       </c>
       <c r="K2" t="n">
-        <v>1349825.493466281</v>
+        <v>2917037.950638269</v>
       </c>
       <c r="L2" t="n">
-        <v>1161.819905779842</v>
+        <v>1707.933825017313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7512432172560982</v>
+        <v>0.4624246028431029</v>
       </c>
     </row>
   </sheetData>
